--- a/data/trans_orig/P29A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D4B9DA-C609-46B8-8C9C-56CF313C8AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A7CDF96-9F62-40FB-9B13-30E0EB9EB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6724B4DA-E90E-4C3B-8122-E8AA15452690}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAFB40C1-81D7-410F-986C-F3E1C52A0757}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
   <si>
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2016 (Tasa respuesta: 43,49%)</t>
   </si>
@@ -75,103 +75,109 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>96,01%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>1,94%</t>
@@ -180,7 +186,7 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -189,7 +195,7 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,81%</t>
+    <t>97,68%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -198,7 +204,7 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>96,11%</t>
+    <t>96,32%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -207,10 +213,10 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -219,7 +225,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -228,37 +234,40 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,68%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>95,97%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>98,59%</t>
@@ -267,25 +276,28 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -297,214 +309,217 @@
     <t>89,15%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>57,33%</t>
   </si>
   <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>42,67%</t>
   </si>
   <si>
-    <t>35,66%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
   </si>
   <si>
     <t>20,77%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
 </sst>
 </file>
@@ -916,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7BD176-A23E-4B4B-8FAA-6FDB94DA95FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BDB06D-D6CA-45C2-9A7B-70D9B85638EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1195,13 +1210,13 @@
         <v>1180396</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>656</v>
@@ -1210,13 +1225,13 @@
         <v>681184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>1767</v>
@@ -1225,13 +1240,13 @@
         <v>1861579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1246,13 +1261,13 @@
         <v>14710</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -1261,13 +1276,13 @@
         <v>22077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -1276,13 +1291,13 @@
         <v>36788</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,7 +1353,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1350,13 +1365,13 @@
         <v>355978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>251</v>
@@ -1365,13 +1380,13 @@
         <v>263408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>577</v>
@@ -1380,13 +1395,13 @@
         <v>619386</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,13 +1416,13 @@
         <v>3008</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1416,13 +1431,13 @@
         <v>3562</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -1431,13 +1446,13 @@
         <v>6570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1505,13 +1520,13 @@
         <v>1868306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1025</v>
@@ -1520,13 +1535,13 @@
         <v>1069946</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>2792</v>
@@ -1535,13 +1550,13 @@
         <v>2938252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,13 +1571,13 @@
         <v>23498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -1571,13 +1586,13 @@
         <v>31194</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -1586,13 +1601,13 @@
         <v>54692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,7 +1663,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A07D3-9E3F-4952-BE85-AF5E5A702AE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D70EE8-B455-4566-83B1-8B55C7865EAE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1684,7 +1699,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1791,13 +1806,13 @@
         <v>255445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -1806,13 +1821,13 @@
         <v>74419</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>438</v>
@@ -1821,13 +1836,13 @@
         <v>329864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,13 +1857,13 @@
         <v>31087</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -1857,13 +1872,13 @@
         <v>55400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -1872,13 +1887,13 @@
         <v>86486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1961,13 @@
         <v>1005885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>720</v>
@@ -1961,13 +1976,13 @@
         <v>656978</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1638</v>
@@ -1976,13 +1991,13 @@
         <v>1662864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +2012,13 @@
         <v>265519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>319</v>
@@ -2012,13 +2027,13 @@
         <v>263922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>513</v>
@@ -2027,13 +2042,13 @@
         <v>529440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2104,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2101,13 +2116,13 @@
         <v>350586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -2116,13 +2131,13 @@
         <v>261738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>706</v>
@@ -2131,13 +2146,13 @@
         <v>612324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2167,13 @@
         <v>69797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -2167,13 +2182,13 @@
         <v>93014</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2182,13 +2197,13 @@
         <v>162812</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2271,13 @@
         <v>1611916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1202</v>
@@ -2271,13 +2286,13 @@
         <v>993135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2782</v>
@@ -2286,13 +2301,13 @@
         <v>2605052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2322,13 @@
         <v>366403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>517</v>
@@ -2322,13 +2337,13 @@
         <v>412336</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>809</v>
@@ -2337,13 +2352,13 @@
         <v>778738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,7 +2414,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A7CDF96-9F62-40FB-9B13-30E0EB9EB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D020DB8B-BAAB-4928-BD08-2A7B3430DCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAFB40C1-81D7-410F-986C-F3E1C52A0757}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BC458ABA-E930-4C25-95CF-F229E1BB6F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -306,220 +306,220 @@
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2023 (Tasa respuesta: 41,21%)</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BDB06D-D6CA-45C2-9A7B-70D9B85638EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84648F3-483E-4A14-BE5C-5F233B73A872}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D70EE8-B455-4566-83B1-8B55C7865EAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B977183F-892F-4AE6-92D3-371621B0601F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1803,7 +1803,7 @@
         <v>315</v>
       </c>
       <c r="D4" s="7">
-        <v>255445</v>
+        <v>243957</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -1818,7 +1818,7 @@
         <v>123</v>
       </c>
       <c r="I4" s="7">
-        <v>74419</v>
+        <v>67333</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -1833,7 +1833,7 @@
         <v>438</v>
       </c>
       <c r="N4" s="7">
-        <v>329864</v>
+        <v>311290</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -1854,7 +1854,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>31087</v>
+        <v>31838</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -1869,7 +1869,7 @@
         <v>84</v>
       </c>
       <c r="I5" s="7">
-        <v>55400</v>
+        <v>49320</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -1884,7 +1884,7 @@
         <v>114</v>
       </c>
       <c r="N5" s="7">
-        <v>86486</v>
+        <v>81158</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -1905,7 +1905,7 @@
         <v>345</v>
       </c>
       <c r="D6" s="7">
-        <v>286532</v>
+        <v>275795</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1920,7 +1920,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>129819</v>
+        <v>116653</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1935,7 +1935,7 @@
         <v>552</v>
       </c>
       <c r="N6" s="7">
-        <v>416350</v>
+        <v>392448</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1958,7 +1958,7 @@
         <v>918</v>
       </c>
       <c r="D7" s="7">
-        <v>1005885</v>
+        <v>985825</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -1973,7 +1973,7 @@
         <v>720</v>
       </c>
       <c r="I7" s="7">
-        <v>656978</v>
+        <v>709850</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -1988,7 +1988,7 @@
         <v>1638</v>
       </c>
       <c r="N7" s="7">
-        <v>1662864</v>
+        <v>1695675</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2009,7 +2009,7 @@
         <v>194</v>
       </c>
       <c r="D8" s="7">
-        <v>265519</v>
+        <v>445285</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2024,7 +2024,7 @@
         <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>263922</v>
+        <v>298573</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2039,7 +2039,7 @@
         <v>513</v>
       </c>
       <c r="N8" s="7">
-        <v>529440</v>
+        <v>743858</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2060,7 +2060,7 @@
         <v>1112</v>
       </c>
       <c r="D9" s="7">
-        <v>1271404</v>
+        <v>1431110</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2075,7 +2075,7 @@
         <v>1039</v>
       </c>
       <c r="I9" s="7">
-        <v>920900</v>
+        <v>1008423</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2090,7 +2090,7 @@
         <v>2151</v>
       </c>
       <c r="N9" s="7">
-        <v>2192304</v>
+        <v>2439533</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2113,7 +2113,7 @@
         <v>347</v>
       </c>
       <c r="D10" s="7">
-        <v>350586</v>
+        <v>344253</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2128,7 +2128,7 @@
         <v>359</v>
       </c>
       <c r="I10" s="7">
-        <v>261738</v>
+        <v>246303</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
@@ -2143,7 +2143,7 @@
         <v>706</v>
       </c>
       <c r="N10" s="7">
-        <v>612324</v>
+        <v>590556</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>131</v>
@@ -2164,7 +2164,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="7">
-        <v>69797</v>
+        <v>65787</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>134</v>
@@ -2179,7 +2179,7 @@
         <v>114</v>
       </c>
       <c r="I11" s="7">
-        <v>93014</v>
+        <v>84416</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>137</v>
@@ -2194,7 +2194,7 @@
         <v>182</v>
       </c>
       <c r="N11" s="7">
-        <v>162812</v>
+        <v>150203</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2215,7 +2215,7 @@
         <v>415</v>
       </c>
       <c r="D12" s="7">
-        <v>420383</v>
+        <v>410040</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2230,7 +2230,7 @@
         <v>473</v>
       </c>
       <c r="I12" s="7">
-        <v>354752</v>
+        <v>330719</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2245,7 +2245,7 @@
         <v>888</v>
       </c>
       <c r="N12" s="7">
-        <v>775136</v>
+        <v>740759</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2268,7 +2268,7 @@
         <v>1580</v>
       </c>
       <c r="D13" s="7">
-        <v>1611916</v>
+        <v>1574035</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
@@ -2283,7 +2283,7 @@
         <v>1202</v>
       </c>
       <c r="I13" s="7">
-        <v>993135</v>
+        <v>1023486</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>146</v>
@@ -2298,7 +2298,7 @@
         <v>2782</v>
       </c>
       <c r="N13" s="7">
-        <v>2605052</v>
+        <v>2597521</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>149</v>
@@ -2319,7 +2319,7 @@
         <v>292</v>
       </c>
       <c r="D14" s="7">
-        <v>366403</v>
+        <v>542910</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>152</v>
@@ -2334,7 +2334,7 @@
         <v>517</v>
       </c>
       <c r="I14" s="7">
-        <v>412336</v>
+        <v>432309</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>155</v>
@@ -2349,7 +2349,7 @@
         <v>809</v>
       </c>
       <c r="N14" s="7">
-        <v>778738</v>
+        <v>975219</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>158</v>
@@ -2370,7 +2370,7 @@
         <v>1872</v>
       </c>
       <c r="D15" s="7">
-        <v>1978319</v>
+        <v>2116945</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2385,7 +2385,7 @@
         <v>1719</v>
       </c>
       <c r="I15" s="7">
-        <v>1405471</v>
+        <v>1455795</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2400,7 +2400,7 @@
         <v>3591</v>
       </c>
       <c r="N15" s="7">
-        <v>3383790</v>
+        <v>3572740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
